--- a/opm_hero_property/heroes/25.xlsx
+++ b/opm_hero_property/heroes/25.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11031</v>
       </c>
       <c r="D4" t="n">
-        <v>11031</v>
+        <v>11829</v>
       </c>
       <c r="E4" t="n">
         <v>238</v>
@@ -1304,7 +1305,7 @@
         <v>12200</v>
       </c>
       <c r="D5" t="n">
-        <v>12200</v>
+        <v>13903</v>
       </c>
       <c r="E5" t="n">
         <v>357</v>
@@ -1411,7 +1412,7 @@
         <v>13575</v>
       </c>
       <c r="D6" t="n">
-        <v>13575</v>
+        <v>16342</v>
       </c>
       <c r="E6" t="n">
         <v>489</v>
@@ -1518,7 +1519,7 @@
         <v>15156</v>
       </c>
       <c r="D7" t="n">
-        <v>15156</v>
+        <v>21433</v>
       </c>
       <c r="E7" t="n">
         <v>917</v>
@@ -1625,7 +1626,7 @@
         <v>16943</v>
       </c>
       <c r="D8" t="n">
-        <v>16943</v>
+        <v>28476</v>
       </c>
       <c r="E8" t="n">
         <v>1358</v>
@@ -1732,7 +1733,7 @@
         <v>19005</v>
       </c>
       <c r="D9" t="n">
-        <v>19005</v>
+        <v>37958</v>
       </c>
       <c r="E9" t="n">
         <v>1793</v>
@@ -1839,7 +1840,7 @@
         <v>20105</v>
       </c>
       <c r="D10" t="n">
-        <v>20105</v>
+        <v>45855</v>
       </c>
       <c r="E10" t="n">
         <v>2119</v>
@@ -1946,7 +1947,7 @@
         <v>21411</v>
       </c>
       <c r="D11" t="n">
-        <v>21411</v>
+        <v>55550</v>
       </c>
       <c r="E11" t="n">
         <v>2472</v>
@@ -2053,7 +2054,7 @@
         <v>24161</v>
       </c>
       <c r="D12" t="n">
-        <v>24161</v>
+        <v>72807</v>
       </c>
       <c r="E12" t="n">
         <v>3043</v>
@@ -2160,7 +2161,7 @@
         <v>24711</v>
       </c>
       <c r="D13" t="n">
-        <v>24711</v>
+        <v>75246</v>
       </c>
       <c r="E13" t="n">
         <v>3423</v>
@@ -2267,7 +2268,7 @@
         <v>25261</v>
       </c>
       <c r="D14" t="n">
-        <v>25261</v>
+        <v>77685</v>
       </c>
       <c r="E14" t="n">
         <v>3803</v>
@@ -2374,7 +2375,7 @@
         <v>25811</v>
       </c>
       <c r="D15" t="n">
-        <v>25811</v>
+        <v>80124</v>
       </c>
       <c r="E15" t="n">
         <v>4184</v>
@@ -2481,7 +2482,7 @@
         <v>26361</v>
       </c>
       <c r="D16" t="n">
-        <v>26361</v>
+        <v>82563</v>
       </c>
       <c r="E16" t="n">
         <v>4564</v>
@@ -2588,7 +2589,7 @@
         <v>26911</v>
       </c>
       <c r="D17" t="n">
-        <v>26911</v>
+        <v>85002</v>
       </c>
       <c r="E17" t="n">
         <v>4944</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29574.772622</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5255.38927</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2136.1062</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41908.5913083</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7414.9735192</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3296.612</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1920</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>75803.7298092</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12864.4635</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7159.690000000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>75803.7298092</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12864.4635</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7159.690000000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X5" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1920</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>65540.83141320001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11991.9585</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7159.690000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X6" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>277811.6633242</v>
+      </c>
+      <c r="U7" t="n">
+        <v>44097.14054399999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>31513.1349</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>231230.7179782</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40437.44582399999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31513.1349</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>25</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>246757.6997602</v>
+      </c>
+      <c r="U9" t="n">
+        <v>41657.344064</v>
+      </c>
+      <c r="V9" t="n">
+        <v>31513.1349</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>262284.6815422</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42877.242304</v>
+      </c>
+      <c r="V10" t="n">
+        <v>31513.1349</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2640</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>277811.6633242</v>
+      </c>
+      <c r="U11" t="n">
+        <v>44097.14054399999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>31513.1349</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>277811.6633242</v>
+      </c>
+      <c r="U12" t="n">
+        <v>44097.14054399999</v>
+      </c>
+      <c r="V12" t="n">
+        <v>31513.1349</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>860</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>410599.3228544</v>
+      </c>
+      <c r="U13" t="n">
+        <v>65679.3516696</v>
+      </c>
+      <c r="V13" t="n">
+        <v>53647.663</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>410599.3228544</v>
+      </c>
+      <c r="U14" t="n">
+        <v>65679.3516696</v>
+      </c>
+      <c r="V14" t="n">
+        <v>53647.663</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>975727.872522</v>
+      </c>
+      <c r="U15" t="n">
+        <v>161761.9950128</v>
+      </c>
+      <c r="V15" t="n">
+        <v>153452.9</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5166220.3118724</v>
+      </c>
+      <c r="U16" t="n">
+        <v>829954.6722651999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>764855.7054</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8438889.887324199</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1357653.4485508</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1244507.5928</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3540</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>217913.7480573</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41318.473506</v>
+      </c>
+      <c r="V18" t="n">
+        <v>28579.534</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>298760.2318624</v>
+      </c>
+      <c r="U19" t="n">
+        <v>53009.3280776</v>
+      </c>
+      <c r="V19" t="n">
+        <v>38793.89</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>860</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>391127.4660258</v>
+      </c>
+      <c r="U20" t="n">
+        <v>65456.98924839999</v>
+      </c>
+      <c r="V20" t="n">
+        <v>53317.1303</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2640</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>457098.3508488</v>
+      </c>
+      <c r="U21" t="n">
+        <v>76383.67280080001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>61586.4535</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>524242.7598</v>
+      </c>
+      <c r="U22" t="n">
+        <v>92676.77225360001</v>
+      </c>
+      <c r="V22" t="n">
+        <v>75889.8867</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>662491.0977298</v>
+      </c>
+      <c r="U23" t="n">
+        <v>126027.3244524</v>
+      </c>
+      <c r="V23" t="n">
+        <v>104815.1662</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/25.xlsx
+++ b/opm_hero_property/heroes/25.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29574.772622</v>
+        <v>5301097.3118724</v>
       </c>
       <c r="U2" t="n">
-        <v>5255.38927</v>
+        <v>853682.6722651999</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.1062</v>
+        <v>786695.7054</v>
       </c>
       <c r="W2" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>800</v>
+        <v>2630</v>
       </c>
       <c r="AA2" t="n">
-        <v>1920</v>
+        <v>2880</v>
       </c>
       <c r="AB2" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11603286.27552</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1526344.28103228</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15730987.05655228</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41908.5913083</v>
+        <v>662491.0977298</v>
       </c>
       <c r="U3" t="n">
-        <v>7414.9735192</v>
+        <v>126027.3244524</v>
       </c>
       <c r="V3" t="n">
-        <v>3296.612</v>
+        <v>104815.1662</v>
       </c>
       <c r="W3" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>800</v>
+        <v>2630</v>
       </c>
       <c r="AA3" t="n">
-        <v>1920</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1316235.02904</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>172434.56306136</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2150745.84210136</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>75803.7298092</v>
+        <v>7286.418</v>
       </c>
       <c r="U4" t="n">
-        <v>12864.4635</v>
+        <v>1564.4175</v>
       </c>
       <c r="V4" t="n">
-        <v>7159.690000000001</v>
+        <v>635.1061999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>1920</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19009.9094</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23466.7594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>75803.7298092</v>
+        <v>19371.7477</v>
       </c>
       <c r="U5" t="n">
-        <v>12864.4635</v>
+        <v>3901.7558</v>
       </c>
       <c r="V5" t="n">
-        <v>7159.690000000001</v>
+        <v>1973.612</v>
       </c>
       <c r="W5" t="n">
-        <v>2100</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>870</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>1920</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48583.38172</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60412.18172000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>65540.83141320001</v>
+        <v>54198.7348</v>
       </c>
       <c r="U6" t="n">
-        <v>11991.9585</v>
+        <v>10082.875</v>
       </c>
       <c r="V6" t="n">
-        <v>7159.690000000001</v>
+        <v>6359.690000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>870</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>117074.4898</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>165273.7898</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>277811.6633242</v>
+        <v>54198.7348</v>
       </c>
       <c r="U7" t="n">
-        <v>44097.14054399999</v>
+        <v>10082.875</v>
       </c>
       <c r="V7" t="n">
-        <v>31513.1349</v>
+        <v>6359.690000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>117074.4898</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>165455.7898</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>231230.7179782</v>
+        <v>54540.8314132</v>
       </c>
       <c r="U8" t="n">
-        <v>40437.44582399999</v>
+        <v>10111.9585</v>
       </c>
       <c r="V8" t="n">
-        <v>31513.1349</v>
+        <v>6359.690000000001</v>
       </c>
       <c r="W8" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>117074.4898</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>542.7727632</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>165998.5625632</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>246757.6997602</v>
+        <v>228889.0198</v>
       </c>
       <c r="U9" t="n">
-        <v>41657.344064</v>
+        <v>40472.456</v>
       </c>
       <c r="V9" t="n">
-        <v>31513.1349</v>
+        <v>31640.1349</v>
       </c>
       <c r="W9" t="n">
         <v>3380</v>
@@ -7597,7 +7805,7 @@
         <v>1650</v>
       </c>
       <c r="AA9" t="n">
-        <v>2400</v>
+        <v>2160</v>
       </c>
       <c r="AB9" t="n">
         <v>930</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>534585.4918750001</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>702898.7418750001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>262284.6815422</v>
+        <v>230441.7179782</v>
       </c>
       <c r="U10" t="n">
-        <v>42877.242304</v>
+        <v>40594.44582399999</v>
       </c>
       <c r="V10" t="n">
-        <v>31513.1349</v>
+        <v>31640.1349</v>
       </c>
       <c r="W10" t="n">
         <v>3380</v>
@@ -7708,7 +7940,7 @@
         <v>1650</v>
       </c>
       <c r="AA10" t="n">
-        <v>2640</v>
+        <v>2160</v>
       </c>
       <c r="AB10" t="n">
         <v>930</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>534585.4918750001</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2394.4279638</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>705293.1698388</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>277811.6633242</v>
+        <v>245968.6997602</v>
       </c>
       <c r="U11" t="n">
-        <v>44097.14054399999</v>
+        <v>41814.344064</v>
       </c>
       <c r="V11" t="n">
-        <v>31513.1349</v>
+        <v>31640.1349</v>
       </c>
       <c r="W11" t="n">
         <v>3380</v>
@@ -7819,7 +8075,7 @@
         <v>1650</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2400</v>
       </c>
       <c r="AB11" t="n">
         <v>930</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>534585.4918750001</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>26542.7076018</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>729441.4494768</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,21 +8181,21 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>277811.6633242</v>
+        <v>261495.6815422</v>
       </c>
       <c r="U12" t="n">
-        <v>44097.14054399999</v>
+        <v>43034.242304</v>
       </c>
       <c r="V12" t="n">
-        <v>31513.1349</v>
+        <v>31640.1349</v>
       </c>
       <c r="W12" t="n">
         <v>3380</v>
@@ -7927,13 +8207,13 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2640</v>
       </c>
       <c r="AB12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>534585.4918750001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>50690.9872398</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>753589.7291148001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,17 +8320,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>410599.3228544</v>
+        <v>277022.6633242</v>
       </c>
       <c r="U13" t="n">
-        <v>65679.3516696</v>
+        <v>44254.14054399999</v>
       </c>
       <c r="V13" t="n">
-        <v>53647.663</v>
+        <v>31640.1349</v>
       </c>
       <c r="W13" t="n">
         <v>3380</v>
@@ -8038,37 +8342,61 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1720</v>
+        <v>1650</v>
       </c>
       <c r="AA13" t="n">
         <v>2880</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>534585.4918750001</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>74839.26687780001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>777738.0087528001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,17 +8455,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>410599.3228544</v>
+        <v>277022.6633242</v>
       </c>
       <c r="U14" t="n">
-        <v>65679.3516696</v>
+        <v>44254.14054399999</v>
       </c>
       <c r="V14" t="n">
-        <v>53647.663</v>
+        <v>31640.1349</v>
       </c>
       <c r="W14" t="n">
         <v>3380</v>
@@ -8149,37 +8477,61 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1790</v>
+        <v>1580</v>
       </c>
       <c r="AA14" t="n">
         <v>2880</v>
       </c>
       <c r="AB14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>534585.4918750001</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>74839.26687780001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>777556.0087528001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,17 +8590,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>975727.872522</v>
+        <v>413099.3228544</v>
       </c>
       <c r="U15" t="n">
-        <v>161761.9950128</v>
+        <v>66487.3516696</v>
       </c>
       <c r="V15" t="n">
-        <v>153452.9</v>
+        <v>54421.663</v>
       </c>
       <c r="W15" t="n">
         <v>3380</v>
@@ -8260,37 +8612,61 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2070</v>
+        <v>1720</v>
       </c>
       <c r="AA15" t="n">
         <v>2880</v>
       </c>
       <c r="AB15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>827693.7131100001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>111758.69851464</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1198399.61162464</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,17 +8725,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5166220.3118724</v>
+        <v>413099.3228544</v>
       </c>
       <c r="U16" t="n">
-        <v>829954.6722651999</v>
+        <v>66487.3516696</v>
       </c>
       <c r="V16" t="n">
-        <v>764855.7054</v>
+        <v>54421.663</v>
       </c>
       <c r="W16" t="n">
         <v>3380</v>
@@ -8371,37 +8747,61 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="AA16" t="n">
         <v>2880</v>
       </c>
       <c r="AB16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>827693.7131100001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>111758.69851464</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1198581.61162464</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,17 +8860,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8438889.887324199</v>
+        <v>1013222.872522</v>
       </c>
       <c r="U17" t="n">
-        <v>1357653.4485508</v>
+        <v>168618.9950128</v>
       </c>
       <c r="V17" t="n">
-        <v>1244507.5928</v>
+        <v>160085.9</v>
       </c>
       <c r="W17" t="n">
         <v>3380</v>
@@ -8482,70 +8882,94 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>3540</v>
+        <v>2070</v>
       </c>
       <c r="AA17" t="n">
         <v>2880</v>
       </c>
       <c r="AB17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1909311.11968</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>246792.99343032</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3111710.86311032</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>217913.7480573</v>
+        <v>5301097.3118724</v>
       </c>
       <c r="U18" t="n">
-        <v>41318.473506</v>
+        <v>853682.6722651999</v>
       </c>
       <c r="V18" t="n">
-        <v>28579.534</v>
+        <v>786695.7054</v>
       </c>
       <c r="W18" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>870</v>
+        <v>2630</v>
       </c>
       <c r="AA18" t="n">
-        <v>1200</v>
+        <v>2880</v>
       </c>
       <c r="AB18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11603286.27552</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1526344.28103228</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15730987.05655228</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,31 +9116,31 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>298760.2318624</v>
+        <v>8748607.887324199</v>
       </c>
       <c r="U19" t="n">
-        <v>53009.3280776</v>
+        <v>1411686.4485508</v>
       </c>
       <c r="V19" t="n">
-        <v>38793.89</v>
+        <v>1293739.5928</v>
       </c>
       <c r="W19" t="n">
         <v>3380</v>
@@ -8704,37 +9152,61 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1580</v>
+        <v>3540</v>
       </c>
       <c r="AA19" t="n">
-        <v>2400</v>
+        <v>2880</v>
       </c>
       <c r="AB19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18821243.62413</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2482040.41679472</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25946592.04092472</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>391127.4660258</v>
+        <v>206913.7480573</v>
       </c>
       <c r="U20" t="n">
-        <v>65456.98924839999</v>
+        <v>39438.473506</v>
       </c>
       <c r="V20" t="n">
-        <v>53317.1303</v>
+        <v>27779.534</v>
       </c>
       <c r="W20" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA20" t="n">
-        <v>2640</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>561192.5705500001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2563.2651987</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>643888.5357487</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>457098.3508488</v>
+        <v>275660.2318624</v>
       </c>
       <c r="U21" t="n">
-        <v>76383.67280080001</v>
+        <v>49061.3280776</v>
       </c>
       <c r="V21" t="n">
-        <v>61586.4535</v>
+        <v>37113.89</v>
       </c>
       <c r="W21" t="n">
-        <v>3380</v>
+        <v>1700</v>
       </c>
       <c r="X21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1790</v>
+        <v>1040</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1590</v>
       </c>
       <c r="AB21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>668543.67136</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>33043.89173784</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>835146.2630978399</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,31 +9521,31 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>524242.7598</v>
+        <v>391127.4660258</v>
       </c>
       <c r="U22" t="n">
-        <v>92676.77225360001</v>
+        <v>65456.98924839999</v>
       </c>
       <c r="V22" t="n">
-        <v>75889.8867</v>
+        <v>53317.1303</v>
       </c>
       <c r="W22" t="n">
         <v>3380</v>
@@ -9037,37 +9557,61 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2070</v>
+        <v>1650</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2640</v>
       </c>
       <c r="AB22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>851598.8536149999</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>77903.03744976</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1162581.19106476</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,17 +9670,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>662491.0977298</v>
+        <v>457098.3508488</v>
       </c>
       <c r="U23" t="n">
-        <v>126027.3244524</v>
+        <v>76383.67280080001</v>
       </c>
       <c r="V23" t="n">
-        <v>104815.1662</v>
+        <v>61586.4535</v>
       </c>
       <c r="W23" t="n">
         <v>3380</v>
@@ -9148,37 +9692,331 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="AA23" t="n">
         <v>2880</v>
       </c>
       <c r="AB23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>930933.5518050001</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>124735.39899432</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1352062.80079932</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>524242.7598</v>
+      </c>
+      <c r="U24" t="n">
+        <v>92676.77225360001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>75889.8867</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1056153.491185</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>140150.39568984</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1614602.33687484</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>25</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>662491.0977298</v>
+      </c>
+      <c r="U25" t="n">
+        <v>126027.3244524</v>
+      </c>
+      <c r="V25" t="n">
+        <v>104815.1662</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1316235.02904</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>172434.56306136</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2150745.84210136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/25.xlsx
+++ b/opm_hero_property/heroes/25.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,34613;31,9832;41,2642</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,7934</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,51919;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4175;31,1178;41,381</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1144</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6263;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>34613.32</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>9832.620000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2642.274</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7934.733</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>51919.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>4175.836</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1178.436</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>381.2276</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>1144.8242</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>6263.754000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,34616;31,9834;41,2642</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,7936</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,51924;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4179;31,1179;41,381</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1146</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6268;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>34616.652</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>9834.048000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2642.7416</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7936.1372</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>51924.978</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4179.168</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1179.864</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>381.6952</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>1146.2284</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>6268.752</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,36874;31,10833;41,3107</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,9332</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,55312;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4422;31,1287;41,433</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1300</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6633;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>36874.9291792</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>10833.9898086</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3107.68089922</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>9332.34713149</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>55312.39376880001</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>4422.4837384</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1287.5594382</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>433.08911266</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>1300.56401197</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>6633.7256076</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,39432;31,11967;41,3634</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,10915</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,59149;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4697;31,1409;41,491</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1475</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7046;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>39432.9573792</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>11967.62532</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3634.79969254</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>10915.28171143</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>59149.4360688</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>4697.700638400001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1409.52084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>491.26688262</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>1475.27150679</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>7046.5509576</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53055;31,11084;41,4458</t>
+          <t>21,42444;31,13300;41,4254</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53055;31,11084;41,4458</t>
+          <t>21,0;31,0;41,12776</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26527;31,5542;41,2229</t>
+          <t>21,63666;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6276;31,1294;41,586</t>
+          <t>21,5021;31,1552;41,559</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6276;31,1294;41,586</t>
+          <t>21,0;31,0;41,1680</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3138;31,647;41,293</t>
+          <t>21,7532;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53055</v>
+        <v>42444.38237200001</v>
       </c>
       <c r="O6" t="n">
-        <v>11084</v>
+        <v>13300.895895</v>
       </c>
       <c r="P6" t="n">
-        <v>4458</v>
+        <v>4254.66980156</v>
       </c>
       <c r="Q6" t="n">
-        <v>53055</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11084</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4458</v>
+        <v>12776.74793702</v>
       </c>
       <c r="T6" t="n">
-        <v>26527</v>
+        <v>63666.57355800001</v>
       </c>
       <c r="U6" t="n">
-        <v>5542</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2229</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6276</v>
+        <v>5021.495794</v>
       </c>
       <c r="X6" t="n">
-        <v>1294</v>
+        <v>1552.841115</v>
       </c>
       <c r="Y6" t="n">
-        <v>586</v>
+        <v>559.66777468</v>
       </c>
       <c r="Z6" t="n">
-        <v>6276</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>586</v>
+        <v>1680.67897606</v>
       </c>
       <c r="AC6" t="n">
-        <v>3138</v>
+        <v>7532.243691000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59150;31,12363;41,5815</t>
+          <t>21,47320;31,14835;41,5549</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,59150;31,12363;41,5815</t>
+          <t>21,0;31,0;41,16665</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,29575;31,6181;41,2907</t>
+          <t>21,70980;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6938;31,1433;41,737</t>
+          <t>21,5551;31,1719;41,703</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6938;31,1433;41,737</t>
+          <t>21,0;31,0;41,2112</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3469;31,716;41,368</t>
+          <t>21,8326;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>59150</v>
+        <v>47320.5079368</v>
       </c>
       <c r="O7" t="n">
-        <v>12363</v>
+        <v>14835.9855336</v>
       </c>
       <c r="P7" t="n">
-        <v>5815</v>
+        <v>5549.56594794</v>
       </c>
       <c r="Q7" t="n">
-        <v>59150</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12363</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5815</v>
+        <v>16665.31331073</v>
       </c>
       <c r="T7" t="n">
-        <v>29575</v>
+        <v>70980.76190520001</v>
       </c>
       <c r="U7" t="n">
-        <v>6181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2907</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6938</v>
+        <v>5551.1486436</v>
       </c>
       <c r="X7" t="n">
-        <v>1433</v>
+        <v>1719.7042632</v>
       </c>
       <c r="Y7" t="n">
-        <v>737</v>
+        <v>703.46519882</v>
       </c>
       <c r="Z7" t="n">
-        <v>6938</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1433</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>737</v>
+        <v>2112.50177969</v>
       </c>
       <c r="AC7" t="n">
-        <v>3469</v>
+        <v>8326.7229654</v>
       </c>
       <c r="AD7" t="n">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,67034;31,13808;41,7692</t>
+          <t>21,53627;31,16569;41,7340</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,67034;31,13808;41,7692</t>
+          <t>21,0;31,0;41,22043</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,33517;31,6904;41,3846</t>
+          <t>21,80441;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7791;31,1589;41,945</t>
+          <t>21,6233;31,1907;41,901</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7791;31,1589;41,945</t>
+          <t>21,0;31,0;41,2708</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3895;31,794;41,472</t>
+          <t>21,9350;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>67034</v>
+        <v>53627.6273736</v>
       </c>
       <c r="O8" t="n">
-        <v>13808</v>
+        <v>16569.9542358</v>
       </c>
       <c r="P8" t="n">
-        <v>7692</v>
+        <v>7340.43440568</v>
       </c>
       <c r="Q8" t="n">
-        <v>67034</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13808</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7692</v>
+        <v>22043.28056556</v>
       </c>
       <c r="T8" t="n">
-        <v>33517</v>
+        <v>80441.44106040001</v>
       </c>
       <c r="U8" t="n">
-        <v>6904</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3846</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7791</v>
+        <v>6233.4210372</v>
       </c>
       <c r="X8" t="n">
-        <v>1589</v>
+        <v>1907.1702846</v>
       </c>
       <c r="Y8" t="n">
-        <v>945</v>
+        <v>901.87867704</v>
       </c>
       <c r="Z8" t="n">
-        <v>7791</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1589</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>945</v>
+        <v>2708.33626668</v>
       </c>
       <c r="AC8" t="n">
-        <v>3895</v>
+        <v>9350.131555800001</v>
       </c>
       <c r="AD8" t="n">
-        <v>794</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,77174;31,15474;41,10217</t>
+          <t>21,61739;31,18569;41,9750</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,77174;31,15474;41,10217</t>
+          <t>21,0;31,0;41,29281</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,38587;31,7737;41,5108</t>
+          <t>21,92609;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8884;31,1768;41,1224</t>
+          <t>21,7107;31,2122;41,1168</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8884;31,1768;41,1224</t>
+          <t>21,0;31,0;41,3508</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4442;31,884;41,612</t>
+          <t>21,10661;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>77174</v>
+        <v>61739.8974584</v>
       </c>
       <c r="O9" t="n">
-        <v>15474</v>
+        <v>18569.627853</v>
       </c>
       <c r="P9" t="n">
-        <v>10217</v>
+        <v>9750.80557244</v>
       </c>
       <c r="Q9" t="n">
-        <v>77174</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15474</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>10217</v>
+        <v>29281.61074598</v>
       </c>
       <c r="T9" t="n">
-        <v>38587</v>
+        <v>92609.84618759999</v>
       </c>
       <c r="U9" t="n">
-        <v>7737</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>5108</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8884</v>
+        <v>7107.6574268</v>
       </c>
       <c r="X9" t="n">
-        <v>1768</v>
+        <v>2122.351161</v>
       </c>
       <c r="Y9" t="n">
-        <v>1224</v>
+        <v>1168.32564732</v>
       </c>
       <c r="Z9" t="n">
-        <v>8884</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1224</v>
+        <v>3508.47492294</v>
       </c>
       <c r="AC9" t="n">
-        <v>4442</v>
+        <v>10661.4861402</v>
       </c>
       <c r="AD9" t="n">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,84773;31,16363;41,12321</t>
+          <t>21,67818;31,19636;41,11758</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,84773;31,16363;41,12321</t>
+          <t>21,0;31,0;41,35310</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,42386;31,8181;41,6160</t>
+          <t>21,101728;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9703;31,1864;41,1456</t>
+          <t>21,7762;31,2237;41,1390</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9703;31,1864;41,1456</t>
+          <t>21,0;31,0;41,4174</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4851;31,932;41,728</t>
+          <t>21,11644;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>84773</v>
+        <v>67818.9836296</v>
       </c>
       <c r="O10" t="n">
-        <v>16363</v>
+        <v>19636.269513</v>
       </c>
       <c r="P10" t="n">
-        <v>12321</v>
+        <v>11758.2966039</v>
       </c>
       <c r="Q10" t="n">
-        <v>84773</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16363</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>12321</v>
+        <v>35310.09429255</v>
       </c>
       <c r="T10" t="n">
-        <v>42386</v>
+        <v>101728.4754444</v>
       </c>
       <c r="U10" t="n">
-        <v>8181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6160</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9703</v>
+        <v>7762.783949200001</v>
       </c>
       <c r="X10" t="n">
-        <v>1864</v>
+        <v>2237.032581</v>
       </c>
       <c r="Y10" t="n">
-        <v>1456</v>
+        <v>1390.2683367</v>
       </c>
       <c r="Z10" t="n">
-        <v>9703</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1864</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1456</v>
+        <v>4174.967490149999</v>
       </c>
       <c r="AC10" t="n">
-        <v>4851</v>
+        <v>11644.1759238</v>
       </c>
       <c r="AD10" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,94038;31,17418;41,14903</t>
+          <t>21,75230;31,20902;41,14222</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,94038;31,17418;41,14903</t>
+          <t>21,0;31,0;41,42710</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,47019;31,8709;41,7451</t>
+          <t>21,112846;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10700;31,1977;41,1742</t>
+          <t>21,8560;31,2372;41,1662</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10700;31,1977;41,1742</t>
+          <t>21,0;31,0;41,4992</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5350;31,988;41,871</t>
+          <t>21,12840;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>94038</v>
+        <v>75230.6740864</v>
       </c>
       <c r="O11" t="n">
-        <v>17418</v>
+        <v>20902.4202366</v>
       </c>
       <c r="P11" t="n">
-        <v>14903</v>
+        <v>14222.554499</v>
       </c>
       <c r="Q11" t="n">
-        <v>94038</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17418</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14903</v>
+        <v>42710.2459955</v>
       </c>
       <c r="T11" t="n">
-        <v>47019</v>
+        <v>112846.0111296</v>
       </c>
       <c r="U11" t="n">
-        <v>8709</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7451</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10700</v>
+        <v>8560.409132800001</v>
       </c>
       <c r="X11" t="n">
-        <v>1977</v>
+        <v>2372.9468742</v>
       </c>
       <c r="Y11" t="n">
-        <v>1742</v>
+        <v>1662.441747</v>
       </c>
       <c r="Z11" t="n">
-        <v>10700</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1977</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1742</v>
+        <v>4992.3026115</v>
       </c>
       <c r="AC11" t="n">
-        <v>5350</v>
+        <v>12840.6136992</v>
       </c>
       <c r="AD11" t="n">
-        <v>988</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,111110;31,19640;41,19499</t>
+          <t>21,88888;31,23568;41,18608</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,111110;31,19640;41,19499</t>
+          <t>21,0;31,0;41,55880</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,55555;31,9820;41,9749</t>
+          <t>21,133333;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12535;31,2215;41,2249</t>
+          <t>21,10028;31,2659;41,2146</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12535;31,2215;41,2249</t>
+          <t>21,0;31,0;41,6445</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6267;31,1107;41,1124</t>
+          <t>21,15042;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>111110</v>
+        <v>88888.7397944</v>
       </c>
       <c r="O12" t="n">
-        <v>19640</v>
+        <v>23568.41538660001</v>
       </c>
       <c r="P12" t="n">
-        <v>19499</v>
+        <v>18608.33501526</v>
       </c>
       <c r="Q12" t="n">
-        <v>111110</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19640</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>19499</v>
+        <v>55880.71862367</v>
       </c>
       <c r="T12" t="n">
-        <v>55555</v>
+        <v>133333.1096916</v>
       </c>
       <c r="U12" t="n">
-        <v>9820</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>9749</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12535</v>
+        <v>10028.2624988</v>
       </c>
       <c r="X12" t="n">
-        <v>2215</v>
+        <v>2659.0414242</v>
       </c>
       <c r="Y12" t="n">
-        <v>2249</v>
+        <v>2146.33449078</v>
       </c>
       <c r="Z12" t="n">
-        <v>12535</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2215</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2249</v>
+        <v>6445.42962351</v>
       </c>
       <c r="AC12" t="n">
-        <v>6267</v>
+        <v>15042.3937482</v>
       </c>
       <c r="AD12" t="n">
-        <v>1107</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,113751;31,20086;41,20151</t>
+          <t>21,91001;31,24103;41,19229</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,113751;31,20086;41,20151</t>
+          <t>21,0;31,0;41,57747</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,56875;31,10043;41,10075</t>
+          <t>21,136501;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12828;31,2265;41,2322</t>
+          <t>21,10262;31,2718;41,2216</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,12828;31,2265;41,2322</t>
+          <t>21,0;31,0;41,6655</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6414;31,1132;41,1161</t>
+          <t>21,15393;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>113751</v>
+        <v>91001.0432016</v>
       </c>
       <c r="O13" t="n">
-        <v>20086</v>
+        <v>24103.6892166</v>
       </c>
       <c r="P13" t="n">
-        <v>20151</v>
+        <v>19229.84172428</v>
       </c>
       <c r="Q13" t="n">
-        <v>113751</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20086</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>20151</v>
+        <v>57747.09954926</v>
       </c>
       <c r="T13" t="n">
-        <v>56875</v>
+        <v>136501.5648024</v>
       </c>
       <c r="U13" t="n">
-        <v>10043</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>10075</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12828</v>
+        <v>10262.5731432</v>
       </c>
       <c r="X13" t="n">
-        <v>2265</v>
+        <v>2718.3351342</v>
       </c>
       <c r="Y13" t="n">
-        <v>2322</v>
+        <v>2216.37198284</v>
       </c>
       <c r="Z13" t="n">
-        <v>12828</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2265</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2322</v>
+        <v>6655.751792780001</v>
       </c>
       <c r="AC13" t="n">
-        <v>6414</v>
+        <v>15393.8597148</v>
       </c>
       <c r="AD13" t="n">
-        <v>1132</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,116395;31,20532;41,20802</t>
+          <t>21,93116;31,24638;41,19851</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,116395;31,20532;41,20802</t>
+          <t>21,0;31,0;41,59613</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,58197;31,10266;41,10401</t>
+          <t>21,139675;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13121;31,2314;41,2395</t>
+          <t>21,10497;31,2777;41,2286</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13121;31,2314;41,2395</t>
+          <t>21,0;31,0;41,6866</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6560;31,1157;41,1197</t>
+          <t>21,15745;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>116395</v>
+        <v>93116.7528704</v>
       </c>
       <c r="O14" t="n">
-        <v>20532</v>
+        <v>24638.9630466</v>
       </c>
       <c r="P14" t="n">
-        <v>20802</v>
+        <v>19851.3818333</v>
       </c>
       <c r="Q14" t="n">
-        <v>116395</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20532</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>20802</v>
+        <v>59613.58077485</v>
       </c>
       <c r="T14" t="n">
-        <v>58197</v>
+        <v>139675.1293056</v>
       </c>
       <c r="U14" t="n">
-        <v>10266</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>10401</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13121</v>
+        <v>10497.2463008</v>
       </c>
       <c r="X14" t="n">
-        <v>2314</v>
+        <v>2777.6288442</v>
       </c>
       <c r="Y14" t="n">
-        <v>2395</v>
+        <v>2286.4428749</v>
       </c>
       <c r="Z14" t="n">
-        <v>13121</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2314</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2395</v>
+        <v>6866.17426205</v>
       </c>
       <c r="AC14" t="n">
-        <v>6560</v>
+        <v>15745.8694512</v>
       </c>
       <c r="AD14" t="n">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,119040;31,20978;41,21453</t>
+          <t>21,95232;31,25174;41,20472</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,119040;31,20978;41,21453</t>
+          <t>21,0;31,0;41,61479</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,59520;31,10489;41,10726</t>
+          <t>21,142848;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13414;31,2364;41,2469</t>
+          <t>21,10731;31,2836;41,2356</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13414;31,2364;41,2469</t>
+          <t>21,0;31,0;41,7076</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6707;31,1182;41,1234</t>
+          <t>21,16097;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>119040</v>
+        <v>95232.49053920001</v>
       </c>
       <c r="O15" t="n">
-        <v>20978</v>
+        <v>25174.2788766</v>
       </c>
       <c r="P15" t="n">
-        <v>21453</v>
+        <v>20472.88854232</v>
       </c>
       <c r="Q15" t="n">
-        <v>119040</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20978</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>21453</v>
+        <v>61479.96170044</v>
       </c>
       <c r="T15" t="n">
-        <v>59520</v>
+        <v>142848.7358088</v>
       </c>
       <c r="U15" t="n">
-        <v>10489</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10726</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13414</v>
+        <v>10731.9474584</v>
       </c>
       <c r="X15" t="n">
-        <v>2364</v>
+        <v>2836.9645542</v>
       </c>
       <c r="Y15" t="n">
-        <v>2469</v>
+        <v>2356.48036696</v>
       </c>
       <c r="Z15" t="n">
-        <v>13414</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2364</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2469</v>
+        <v>7076.49643132</v>
       </c>
       <c r="AC15" t="n">
-        <v>6707</v>
+        <v>16097.9211876</v>
       </c>
       <c r="AD15" t="n">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,121685;31,21424;41,22104</t>
+          <t>21,97348;31,25709;41,21094</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,121685;31,21424;41,22104</t>
+          <t>21,0;31,0;41,63346</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,60842;31,10712;41,11052</t>
+          <t>21,146022;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,13708;31,2413;41,2542</t>
+          <t>21,10966;31,2896;41,2426</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,13708;31,2413;41,2542</t>
+          <t>21,0;31,0;41,7286</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6854;31,1206;41,1271</t>
+          <t>21,16449;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>121685</v>
+        <v>97348.20020800001</v>
       </c>
       <c r="O16" t="n">
-        <v>21424</v>
+        <v>25709.5527066</v>
       </c>
       <c r="P16" t="n">
-        <v>22104</v>
+        <v>21094.39525134</v>
       </c>
       <c r="Q16" t="n">
-        <v>121685</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21424</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>22104</v>
+        <v>63346.34262603</v>
       </c>
       <c r="T16" t="n">
-        <v>60842</v>
+        <v>146022.300312</v>
       </c>
       <c r="U16" t="n">
-        <v>10712</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>11052</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>13708</v>
+        <v>10966.620616</v>
       </c>
       <c r="X16" t="n">
-        <v>2413</v>
+        <v>2896.2582642</v>
       </c>
       <c r="Y16" t="n">
-        <v>2542</v>
+        <v>2426.51785902</v>
       </c>
       <c r="Z16" t="n">
-        <v>13708</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2542</v>
+        <v>7286.81860059</v>
       </c>
       <c r="AC16" t="n">
-        <v>6854</v>
+        <v>16449.930924</v>
       </c>
       <c r="AD16" t="n">
-        <v>1206</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,124329;31,21870;41,22756</t>
+          <t>21,99463;31,26244;41,21715</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,124329;31,21870;41,22756</t>
+          <t>21,0;31,0;41,65212</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,62164;31,10935;41,11378</t>
+          <t>21,149195;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14001;31,2462;41,2616</t>
+          <t>21,11201;31,2955;41,2496</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14001;31,2462;41,2616</t>
+          <t>21,0;31,0;41,7497</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7000;31,1231;41,1308</t>
+          <t>21,16801;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>124329</v>
+        <v>99463.9098768</v>
       </c>
       <c r="O17" t="n">
-        <v>21870</v>
+        <v>26244.8685366</v>
       </c>
       <c r="P17" t="n">
-        <v>22756</v>
+        <v>21715.93536036</v>
       </c>
       <c r="Q17" t="n">
-        <v>124329</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21870</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>22756</v>
+        <v>65212.82385162</v>
       </c>
       <c r="T17" t="n">
-        <v>62164</v>
+        <v>149195.8648152</v>
       </c>
       <c r="U17" t="n">
-        <v>10935</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>11378</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14001</v>
+        <v>11201.2937736</v>
       </c>
       <c r="X17" t="n">
-        <v>2462</v>
+        <v>2955.5939742</v>
       </c>
       <c r="Y17" t="n">
-        <v>2616</v>
+        <v>2496.58875108</v>
       </c>
       <c r="Z17" t="n">
-        <v>14001</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2462</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2616</v>
+        <v>7497.241069860001</v>
       </c>
       <c r="AC17" t="n">
-        <v>7000</v>
+        <v>16801.9406604</v>
       </c>
       <c r="AD17" t="n">
-        <v>1231</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1308</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7332</v>
+        <v>5569</v>
       </c>
       <c r="C2" t="n">
-        <v>1418</v>
+        <v>1469</v>
       </c>
       <c r="D2" t="n">
-        <v>937</v>
+        <v>1217</v>
       </c>
       <c r="E2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" t="n">
+        <v>48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4370</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>114</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10815</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>48</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2870</v>
+      </c>
+      <c r="U2" t="n">
+        <v>824</v>
+      </c>
+      <c r="V2" t="n">
+        <v>478</v>
+      </c>
+      <c r="W2" t="n">
+        <v>28</v>
+      </c>
+      <c r="X2" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1715</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5573</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>40</v>
       </c>
-      <c r="F2" t="n">
-        <v>40</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7332</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1418</v>
-      </c>
-      <c r="J2" t="n">
-        <v>937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40</v>
-      </c>
-      <c r="L2" t="n">
-        <v>40</v>
-      </c>
-      <c r="M2" t="n">
-        <v>40</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3666</v>
-      </c>
-      <c r="O2" t="n">
-        <v>709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>468</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>20</v>
-      </c>
-      <c r="R2" t="n">
-        <v>20</v>
-      </c>
-      <c r="S2" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5003</v>
-      </c>
-      <c r="U2" t="n">
-        <v>874</v>
-      </c>
-      <c r="V2" t="n">
-        <v>727</v>
-      </c>
-      <c r="W2" t="n">
-        <v>35</v>
-      </c>
-      <c r="X2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5003</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>874</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>727</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2501</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>437</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>363</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7332;31,1418;41,937;22,40;32,40;42,40</t>
+          <t>21,5569;31,1469;41,1217;22,32;32,48;42,38</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7332;31,1418;41,937;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,4370;22,0;32,0;42,114</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3666;31,709;41,468;22,20;32,20;42,20</t>
+          <t>21,10815;31,0;41,0;22,48;32,0;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,2870;31,824;41,478;22,28;32,42;42,33</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,1715;22,0;32,0;42,100</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,5573;31,0;41,0;22,40;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14732</v>
+        <v>11139</v>
       </c>
       <c r="C3" t="n">
-        <v>2721</v>
+        <v>2939</v>
       </c>
       <c r="D3" t="n">
-        <v>2021</v>
+        <v>2435</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H3" t="n">
-        <v>14732</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2721</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2021</v>
+        <v>8740</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="N3" t="n">
-        <v>7366</v>
+        <v>21631</v>
       </c>
       <c r="O3" t="n">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>3301</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>598</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>2146</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>6411</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,14732;31,2721;41,2021;22,80;32,80;42,80</t>
+          <t>21,11139;31,2939;41,2435;22,64;32,96;42,76</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,14732;31,2721;41,2021;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,8740;22,0;32,0;42,229</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7366;31,1360;41,1010;22,40;32,40;42,40</t>
+          <t>21,21631;31,0;41,0;22,96;32,0;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,3301;31,914;41,598;22,56;32,84;42,66</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,2146;22,0;32,0;42,200</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,6411;31,0;41,0;22,84;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21959</v>
+        <v>16709</v>
       </c>
       <c r="C4" t="n">
-        <v>3884</v>
+        <v>4409</v>
       </c>
       <c r="D4" t="n">
-        <v>3305</v>
+        <v>3653</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H4" t="n">
-        <v>21959</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3884</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3305</v>
+        <v>13110</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>344</v>
       </c>
       <c r="N4" t="n">
-        <v>10979</v>
+        <v>32446</v>
       </c>
       <c r="O4" t="n">
-        <v>1942</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>4032</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>1069</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>2899</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>7829</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,21959;31,3884;41,3305;22,120;32,120;42,120</t>
+          <t>21,16709;31,4409;41,3653;22,96;32,144;42,114</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,21959;31,3884;41,3305;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,13110;22,0;32,0;42,344</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,10979;31,1942;41,1652;22,60;32,60;42,60</t>
+          <t>21,32446;31,0;41,0;22,144;32,0;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,4032;31,1069;41,808;22,84;32,126;42,100</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,2899;22,0;32,0;42,301</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,7829;31,0;41,0;22,124;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29200</v>
+        <v>22279</v>
       </c>
       <c r="C5" t="n">
-        <v>5157</v>
+        <v>5878</v>
       </c>
       <c r="D5" t="n">
-        <v>4453</v>
+        <v>4871</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H5" t="n">
-        <v>29200</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5157</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4453</v>
+        <v>17481</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>458</v>
       </c>
       <c r="N5" t="n">
-        <v>14600</v>
+        <v>43262</v>
       </c>
       <c r="O5" t="n">
-        <v>2578</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2226</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>4321</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1144</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>3160</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>8391</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,29200;31,5157;41,4453;22,160;32,160;42,160</t>
+          <t>21,22279;31,5878;41,4871;22,128;32,192;42,152</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,29200;31,5157;41,4453;22,160;32,160;42,160</t>
+          <t>21,0;31,0;41,17481;22,0;32,0;42,458</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,14600;31,2578;41,2226;22,80;32,80;42,80</t>
+          <t>21,43262;31,0;41,0;22,192;32,0;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,4321;31,1144;41,880;22,112;32,168;42,133</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,3160;22,0;32,0;42,401</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,8391;31,0;41,0;22,168;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36409</v>
+        <v>27849</v>
       </c>
       <c r="C6" t="n">
-        <v>6422</v>
+        <v>7348</v>
       </c>
       <c r="D6" t="n">
-        <v>5624</v>
+        <v>6089</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H6" t="n">
-        <v>36409</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6422</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5624</v>
+        <v>21851</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>573</v>
       </c>
       <c r="N6" t="n">
-        <v>18204</v>
+        <v>54077</v>
       </c>
       <c r="O6" t="n">
-        <v>3211</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2812</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>4629</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1225</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>958</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>3441</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>501</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>8990</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,36409;31,6422;41,5624;22,200;32,200;42,200</t>
+          <t>21,27849;31,7348;41,6089;22,160;32,240;42,191</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,36409;31,6422;41,5624;22,200;32,200;42,200</t>
+          <t>21,0;31,0;41,21851;22,0;32,0;42,573</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,18204;31,3211;41,2812;22,100;32,100;42,100</t>
+          <t>21,54077;31,0;41,0;22,240;32,0;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,4629;31,1225;41,958;22,140;32,210;42,167</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,3441;22,0;32,0;42,501</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,8990;31,0;41,0;22,208;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42439</v>
+        <v>33419</v>
       </c>
       <c r="C7" t="n">
-        <v>7479</v>
+        <v>8818</v>
       </c>
       <c r="D7" t="n">
-        <v>7299</v>
+        <v>7306</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="H7" t="n">
-        <v>42439</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7479</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7299</v>
+        <v>26221</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>688</v>
       </c>
       <c r="N7" t="n">
-        <v>21219</v>
+        <v>64893</v>
       </c>
       <c r="O7" t="n">
-        <v>3739</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3649</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>4958</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1310</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1042</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>3742</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>602</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>9627</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,42439;31,7479;41,7299;22,240;32,240;42,240</t>
+          <t>21,33419;31,8818;41,7306;22,192;32,288;42,229</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,42439;31,7479;41,7299;22,240;32,240;42,240</t>
+          <t>21,0;31,0;41,26221;22,0;32,0;42,688</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,21219;31,3739;41,3649;22,120;32,120;42,120</t>
+          <t>21,64893;31,0;41,0;22,288;32,0;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,4958;31,1310;41,1042;22,168;32,252;42,200</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,0;41,3742;22,0;32,0;42,602</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,9627;31,0;41,0;22,252;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48448</v>
+        <v>38989</v>
       </c>
       <c r="C8" t="n">
-        <v>8530</v>
+        <v>10287</v>
       </c>
       <c r="D8" t="n">
-        <v>8986</v>
+        <v>8524</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H8" t="n">
-        <v>48448</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8530</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8986</v>
+        <v>30592</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>802</v>
       </c>
       <c r="N8" t="n">
-        <v>24224</v>
+        <v>75708</v>
       </c>
       <c r="O8" t="n">
-        <v>4265</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4493</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>5307</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1401</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1132</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>4065</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>702</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>10305</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,48448;31,8530;41,8986;22,280;32,280;42,280</t>
+          <t>21,38989;31,10287;41,8524;22,224;32,336;42,267</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,48448;31,8530;41,8986;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,30592;22,0;32,0;42,802</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,24224;31,4265;41,4493;22,140;32,140;42,140</t>
+          <t>21,75708;31,0;41,0;22,336;32,0;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,5307;31,1401;41,1132;22,196;32,294;42,234</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,0;41,4065;22,0;32,0;42,702</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,10305;31,0;41,0;22,292;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54914</v>
+        <v>44559</v>
       </c>
       <c r="C9" t="n">
-        <v>9660</v>
+        <v>11757</v>
       </c>
       <c r="D9" t="n">
-        <v>10484</v>
+        <v>9742</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H9" t="n">
-        <v>54914</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9660</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10484</v>
+        <v>34962</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>903</v>
       </c>
       <c r="N9" t="n">
-        <v>27457</v>
+        <v>86524</v>
       </c>
       <c r="O9" t="n">
-        <v>4830</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5242</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>376</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>5894</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1555</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1284</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>4609</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>802</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>11445</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,54914;31,9660;41,10484;22,315;32,315;42,315</t>
+          <t>21,44559;31,11757;41,9742;22,252;32,378;42,301</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,54914;31,9660;41,10484;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,34962;22,0;32,0;42,903</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,27457;31,4830;41,5242;22,157;32,157;42,157</t>
+          <t>21,86524;31,0;41,0;22,376;32,0;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,5894;31,1555;41,1284;22,224;32,336;42,267</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,4609;22,0;32,0;42,802</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,11445;31,0;41,0;22,336;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>62329</v>
+        <v>50129</v>
       </c>
       <c r="C10" t="n">
-        <v>10964</v>
+        <v>13227</v>
       </c>
       <c r="D10" t="n">
-        <v>11547</v>
+        <v>10960</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H10" t="n">
-        <v>62329</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10964</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11547</v>
+        <v>39332</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>960</v>
       </c>
       <c r="N10" t="n">
-        <v>31164</v>
+        <v>97339</v>
       </c>
       <c r="O10" t="n">
-        <v>5482</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5773</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>6382</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1684</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1408</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>5053</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>903</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>12392</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>376</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,62329;31,10964;41,11547;22,335;32,335;42,335</t>
+          <t>21,50129;31,13227;41,10960;22,268;32,402;42,320</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,62329;31,10964;41,11547;22,335;32,335;42,335</t>
+          <t>21,0;31,0;41,39332;22,0;32,0;42,960</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,31164;31,5482;41,5773;22,167;32,167;42,167</t>
+          <t>21,97339;31,0;41,0;22,400;32,0;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,6382;31,1684;41,1408;22,252;32,378;42,301</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,5053;22,0;32,0;42,903</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,12392;31,0;41,0;22,376;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>69624</v>
+        <v>55699</v>
       </c>
       <c r="C11" t="n">
-        <v>12247</v>
+        <v>14697</v>
       </c>
       <c r="D11" t="n">
-        <v>12743</v>
+        <v>12178</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H11" t="n">
-        <v>69624</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12247</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>12743</v>
+        <v>43703</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>1003</v>
       </c>
       <c r="N11" t="n">
-        <v>34812</v>
+        <v>108155</v>
       </c>
       <c r="O11" t="n">
-        <v>6123</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6371</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>6880</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1815</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1535</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>5511</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>1003</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>13360</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,69624;31,12247;41,12743;22,350;32,350;42,350</t>
+          <t>21,55699;31,14697;41,12178;22,280;32,420;42,334</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,69624;31,12247;41,12743;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,43703;22,0;32,0;42,1003</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,34812;31,6123;41,6371;22,175;32,175;42,175</t>
+          <t>21,108155;31,0;41,0;22,420;32,0;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,6880;31,1815;41,1535;22,280;32,420;42,334</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,5511;22,0;32,0;42,1003</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,13360;31,0;41,0;22,420;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>25</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5301097.3118724</v>
+        <v>6308807.8213972</v>
       </c>
       <c r="U2" t="n">
-        <v>853682.6722651999</v>
+        <v>1044594.7665858</v>
       </c>
       <c r="V2" t="n">
-        <v>786695.7054</v>
+        <v>976631.8571923599</v>
       </c>
       <c r="W2" t="n">
         <v>3380</v>
@@ -6884,33 +6904,49 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,108915</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,257350;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11603286.27552</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1526344.28103228</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>15730987.05655228</v>
+        <v>2934242.5020416</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1856388</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>632551.93110141</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19148123.88969529</v>
       </c>
     </row>
     <row r="3">
@@ -6947,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>25</v>
@@ -6974,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>662491.0977298</v>
+        <v>776583.0879994001</v>
       </c>
       <c r="U3" t="n">
-        <v>126027.3244524</v>
+        <v>147686.6212346</v>
       </c>
       <c r="V3" t="n">
-        <v>104815.1662</v>
+        <v>126785.60824708</v>
       </c>
       <c r="W3" t="n">
         <v>3380</v>
@@ -7019,33 +7055,49 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,13008</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,30161;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1316235.02904</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>172434.56306136</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2150745.84210136</v>
+        <v>584241.4023232</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>210458.35</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>74180.02751429001</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2540617.02193885</v>
       </c>
     </row>
     <row r="4">
@@ -7082,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>25</v>
@@ -7109,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7286.418</v>
+        <v>7735.418</v>
       </c>
       <c r="U4" t="n">
-        <v>1564.4175</v>
+        <v>1643.4175</v>
       </c>
       <c r="V4" t="n">
-        <v>635.1061999999999</v>
+        <v>717.1061999999999</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7154,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19009.9094</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7180,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23466.7594</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1465.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24932.3594</v>
       </c>
     </row>
     <row r="5">
@@ -7217,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>25</v>
@@ -7244,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19371.7477</v>
+        <v>32569.7477</v>
       </c>
       <c r="U5" t="n">
-        <v>3901.7558</v>
+        <v>6222.7558</v>
       </c>
       <c r="V5" t="n">
-        <v>1973.612</v>
+        <v>4388.612</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7289,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48583.38172</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7315,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60412.18172000001</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43099.15</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>103511.33172</v>
       </c>
     </row>
     <row r="6">
@@ -7352,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>25</v>
@@ -7379,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>54198.7348</v>
+        <v>110779.7348</v>
       </c>
       <c r="U6" t="n">
-        <v>10082.875</v>
+        <v>20035.875</v>
       </c>
       <c r="V6" t="n">
-        <v>6359.690000000001</v>
+        <v>16715.69</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7424,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>117074.4898</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>165273.7898</v>
+      <c r="AT6" t="n">
+        <v>184803.7</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>350077.4898</v>
       </c>
     </row>
     <row r="7">
@@ -7487,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>25</v>
@@ -7514,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>54198.7348</v>
+        <v>116470.36915136</v>
       </c>
       <c r="U7" t="n">
-        <v>10082.875</v>
+        <v>21539.7752</v>
       </c>
       <c r="V7" t="n">
-        <v>6359.690000000001</v>
+        <v>17951.240422</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7559,33 +7635,49 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4425</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,10997;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>117074.4898</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>165455.7898</v>
+      <c r="AT7" t="n">
+        <v>184803.7</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>23171.96065786</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>373431.4504578601</v>
       </c>
     </row>
     <row r="8">
@@ -7622,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>25</v>
@@ -7649,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>54540.8314132</v>
+        <v>122504.10011592</v>
       </c>
       <c r="U8" t="n">
-        <v>10111.9585</v>
+        <v>23073.7589</v>
       </c>
       <c r="V8" t="n">
-        <v>6359.690000000001</v>
+        <v>19187.790844</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -7694,33 +7786,49 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,8851</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,21995;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>117074.4898</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>542.7727632</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>165998.5625632</v>
+      <c r="AT8" t="n">
+        <v>184803.7</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>46357.57131572</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>397159.8338789201</v>
       </c>
     </row>
     <row r="9">
@@ -7757,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>25</v>
@@ -7784,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>228889.0198</v>
+        <v>399981.239998</v>
       </c>
       <c r="U9" t="n">
-        <v>40472.456</v>
+        <v>69042.43056000001</v>
       </c>
       <c r="V9" t="n">
-        <v>31640.1349</v>
+        <v>60223.406249</v>
       </c>
       <c r="W9" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7829,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>534585.4918750001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>702898.7418750001</v>
+        <v>44222.60491875</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>433013.65</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1235597.59679375</v>
       </c>
     </row>
     <row r="10">
@@ -7892,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>25</v>
@@ -7919,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>230441.7179782</v>
+        <v>464589.7587950721</v>
       </c>
       <c r="U10" t="n">
-        <v>40594.44582399999</v>
+        <v>80049.4492670208</v>
       </c>
       <c r="V10" t="n">
-        <v>31640.1349</v>
+        <v>68144.99061012916</v>
       </c>
       <c r="W10" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7964,33 +8080,53 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4668</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,11643;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>534585.4918750001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2394.4279638</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
       <c r="AS10" t="n">
-        <v>705293.1698388</v>
+        <v>44222.60491875</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>433013.65</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>24838.059103645</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>253221.1708845632</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1421703.654745758</v>
       </c>
     </row>
     <row r="11">
@@ -8027,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>25</v>
@@ -8054,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>245968.6997602</v>
+        <v>569500.01717595</v>
       </c>
       <c r="U11" t="n">
-        <v>41814.344064</v>
+        <v>96721.226840448</v>
       </c>
       <c r="V11" t="n">
-        <v>31640.1349</v>
+        <v>80639.18472705063</v>
       </c>
       <c r="W11" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA11" t="n">
-        <v>2400</v>
+        <v>2410</v>
       </c>
       <c r="AB11" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8099,33 +8235,53 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,23353</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,58217;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>534585.4918750001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>26542.7076018</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
-        <v>729441.4494768</v>
+        <v>44222.60491875</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>433013.65</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>124253.0761207925</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>421649.0140392398</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1713694.794555582</v>
       </c>
     </row>
     <row r="12">
@@ -8162,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>25</v>
@@ -8189,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>261495.6815422</v>
+        <v>667665.8523921969</v>
       </c>
       <c r="U12" t="n">
-        <v>43034.242304</v>
+        <v>107348.099079968</v>
       </c>
       <c r="V12" t="n">
-        <v>31640.1349</v>
+        <v>91659.88899566479</v>
       </c>
       <c r="W12" t="n">
-        <v>3380</v>
+        <v>3400</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="AA12" t="n">
-        <v>2640</v>
+        <v>2660</v>
       </c>
       <c r="AB12" t="n">
-        <v>930</v>
+        <v>1010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8234,33 +8390,53 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,23353</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,58217;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>534585.4918750001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>50690.9872398</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>753589.7291148001</v>
+        <v>44222.60491875</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>433013.65</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>124253.0761207925</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>632685.0376147061</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1948879.097769049</v>
       </c>
     </row>
     <row r="13">
@@ -8297,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>25</v>
@@ -8324,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>277022.6633242</v>
+        <v>810139.5065782086</v>
       </c>
       <c r="U13" t="n">
-        <v>44254.14054399999</v>
+        <v>129505.690429376</v>
       </c>
       <c r="V13" t="n">
-        <v>31640.1349</v>
+        <v>109248.8990419557</v>
       </c>
       <c r="W13" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8369,33 +8545,53 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,46333</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,115400;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>534585.4918750001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>74839.26687780001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="n">
-        <v>777738.0087528001</v>
+        <v>44222.60491875</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>433013.65</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>245837.500560745</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>884014.1757998534</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2345940.940032148</v>
       </c>
     </row>
     <row r="14">
@@ -8432,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>25</v>
@@ -8459,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>277022.6633242</v>
+        <v>911320.0871592721</v>
       </c>
       <c r="U14" t="n">
-        <v>44254.14054399999</v>
+        <v>136282.167345152</v>
       </c>
       <c r="V14" t="n">
-        <v>31640.1349</v>
+        <v>112801.1207942042</v>
       </c>
       <c r="W14" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1580</v>
+        <v>1630</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>860</v>
+        <v>1060</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8504,33 +8700,53 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,23353</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,58217;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>534585.4918750001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>74839.26687780001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
-        <v>777556.0087528001</v>
+        <v>44040.60491875</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>433013.65</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>124253.0761207925</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1173962.146615152</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2514122.486407495</v>
       </c>
     </row>
     <row r="15">
@@ -8567,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>25</v>
@@ -8594,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>413099.3228544</v>
+        <v>1444669.078746127</v>
       </c>
       <c r="U15" t="n">
-        <v>66487.3516696</v>
+        <v>226644.0259188384</v>
       </c>
       <c r="V15" t="n">
-        <v>54421.663</v>
+        <v>191963.4311046361</v>
       </c>
       <c r="W15" t="n">
-        <v>3380</v>
+        <v>3480</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1720</v>
+        <v>1820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8639,33 +8855,53 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,29256</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,72338;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>827693.7131100001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>111758.69851464</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="n">
-        <v>1198399.61162464</v>
+        <v>127957.1742622</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>792274.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>156108.018385733</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1963795.832165197</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4127115.58643777</v>
       </c>
     </row>
     <row r="16">
@@ -8702,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>25</v>
@@ -8729,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>413099.3228544</v>
+        <v>1478688.737274255</v>
       </c>
       <c r="U16" t="n">
-        <v>66487.3516696</v>
+        <v>232648.0761097574</v>
       </c>
       <c r="V16" t="n">
-        <v>54421.663</v>
+        <v>196883.9403759639</v>
       </c>
       <c r="W16" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8774,33 +9010,53 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,34130</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,84394;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>827693.7131100001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>111758.69851464</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="n">
-        <v>1198581.61162464</v>
+        <v>128139.1742622</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>792274.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>182119.276840651</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2042725.106865883</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4232238.119593374</v>
       </c>
     </row>
     <row r="17">
@@ -8837,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>25</v>
@@ -8864,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1013222.872522</v>
+        <v>2664738.851804884</v>
       </c>
       <c r="U17" t="n">
-        <v>168618.9950128</v>
+        <v>418483.9257911411</v>
       </c>
       <c r="V17" t="n">
-        <v>160085.9</v>
+        <v>385635.85877808</v>
       </c>
       <c r="W17" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8909,33 +9165,53 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,45003</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,108068;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1909311.11968</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>246792.99343032</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3111710.86311032</v>
+        <v>761941.4447872</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1265863.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>241696.563499604</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3090996.856340594</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7786607.127737718</v>
       </c>
     </row>
     <row r="18">
@@ -8972,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>25</v>
@@ -8999,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5301097.3118724</v>
+        <v>9503194.606677517</v>
       </c>
       <c r="U18" t="n">
-        <v>853682.6722651999</v>
+        <v>1436400.549042924</v>
       </c>
       <c r="V18" t="n">
-        <v>786695.7054</v>
+        <v>1315036.160341058</v>
       </c>
       <c r="W18" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9044,33 +9320,53 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,108915</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,257350;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11603286.27552</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1526344.28103228</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="n">
-        <v>15730987.05655228</v>
+        <v>2934242.5020416</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1856388</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>632551.93110141</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7846071.427339489</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26994195.31703478</v>
       </c>
     </row>
     <row r="19">
@@ -9107,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>25</v>
@@ -9134,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8748607.887324199</v>
+        <v>16296024.84820246</v>
       </c>
       <c r="U19" t="n">
-        <v>1411686.4485508</v>
+        <v>2559587.712469402</v>
       </c>
       <c r="V19" t="n">
-        <v>1293739.5928</v>
+        <v>2331289.212223146</v>
       </c>
       <c r="W19" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3540</v>
+        <v>3740</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>2820</v>
+        <v>3620</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9179,33 +9475,53 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,108915</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,257350;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18821243.62413</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2482040.41679472</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
       <c r="AS19" t="n">
-        <v>25946592.04092472</v>
+        <v>6290490.3936195</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1856388</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>632551.93110141</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>16124243.2688788</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47382838.03452443</v>
       </c>
     </row>
     <row r="20">
@@ -9242,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>25</v>
@@ -9269,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>206913.7480573</v>
+        <v>216657.10176846</v>
       </c>
       <c r="U20" t="n">
-        <v>39438.473506</v>
+        <v>41526.8191123</v>
       </c>
       <c r="V20" t="n">
-        <v>27779.534</v>
+        <v>29530.0720622</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9314,33 +9630,49 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,1965</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,6290;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>561192.5705500001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2563.2651987</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>643888.5357487</v>
+      <c r="AT20" t="n">
+        <v>20941.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>13277.03225228</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>678107.06800098</v>
       </c>
     </row>
     <row r="21">
@@ -9377,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>25</v>
@@ -9404,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>275660.2318624</v>
+        <v>293319.55362496</v>
       </c>
       <c r="U21" t="n">
-        <v>49061.3280776</v>
+        <v>52638.73156095999</v>
       </c>
       <c r="V21" t="n">
-        <v>37113.89</v>
+        <v>40314.230174</v>
       </c>
       <c r="W21" t="n">
         <v>1700</v>
@@ -9449,33 +9781,49 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2793</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,8190;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>668543.67136</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>33043.89173784</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>835146.2630978399</v>
+        <v>72184.7867136</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36341.35</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>17726.825084644</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>895891.624896084</v>
       </c>
     </row>
     <row r="22">
@@ -9512,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>25</v>
@@ -9539,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>391127.4660258</v>
+        <v>526025.1386841582</v>
       </c>
       <c r="U22" t="n">
-        <v>65456.98924839999</v>
+        <v>86148.18287355649</v>
       </c>
       <c r="V22" t="n">
-        <v>53317.1303</v>
+        <v>71216.73788404686</v>
       </c>
       <c r="W22" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="AA22" t="n">
-        <v>2640</v>
+        <v>2690</v>
       </c>
       <c r="AB22" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9584,33 +9932,53 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,5711</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,14520;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>851598.8536149999</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>77903.03744976</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="n">
-        <v>1162581.19106476</v>
+        <v>103897.13853615</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49086.15</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>33474.5710338475</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>290121.19271021</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1543770.843344967</v>
       </c>
     </row>
     <row r="23">
@@ -9647,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>25</v>
@@ -9674,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>457098.3508488</v>
+        <v>685036.3937253284</v>
       </c>
       <c r="U23" t="n">
-        <v>76383.67280080001</v>
+        <v>114377.1872777788</v>
       </c>
       <c r="V23" t="n">
-        <v>61586.4535</v>
+        <v>92257.54833151172</v>
       </c>
       <c r="W23" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9719,33 +10087,53 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,7605</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,18735;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>930933.5518050001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>124735.39899432</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="n">
-        <v>1352062.80079932</v>
+        <v>170325.1710361</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>89819.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>44258.846238757</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>516171.5707740171</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2020914.888848194</v>
       </c>
     </row>
     <row r="24">
@@ -9782,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>25</v>
@@ -9809,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>524242.7598</v>
+        <v>857507.4064904798</v>
       </c>
       <c r="U24" t="n">
-        <v>92676.77225360001</v>
+        <v>148863.4696945285</v>
       </c>
       <c r="V24" t="n">
-        <v>75889.8867</v>
+        <v>122476.4161673389</v>
       </c>
       <c r="W24" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9854,33 +10242,53 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,9295</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,22357;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1056153.491185</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>140150.39568984</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1614602.33687484</v>
+        <v>303031.3396474</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>143508.55</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>53509.71908399351</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>751993.9947386915</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2605827.740344925</v>
       </c>
     </row>
     <row r="25">
@@ -9917,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>25</v>
@@ -9944,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>662491.0977298</v>
+        <v>1459202.866943107</v>
       </c>
       <c r="U25" t="n">
-        <v>126027.3244524</v>
+        <v>255544.4176237506</v>
       </c>
       <c r="V25" t="n">
-        <v>104815.1662</v>
+        <v>215609.6087005365</v>
       </c>
       <c r="W25" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9989,33 +10397,53 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,13008</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,30161;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1316235.02904</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>172434.56306136</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="n">
-        <v>2150745.84210136</v>
+        <v>584241.4023232</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>210458.35</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>74180.02751429001</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1939976.576636221</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4480593.598575071</v>
       </c>
     </row>
   </sheetData>
